--- a/security/ir.model.access.xlsx
+++ b/security/ir.model.access.xlsx
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,10 +1503,10 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1529,10 +1529,10 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1555,10 +1555,10 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1581,10 +1581,10 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
